--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-minnesota\InputData\elec\MPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-oregon\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
     <sheet name="geothermal" sheetId="9" r:id="rId9"/>
     <sheet name="hydro" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1413,7 +1413,7 @@
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="str">
         <f>LOOKUP(B1,H3:I52,I3:I52)</f>
-        <v>MN</v>
+        <v>OR</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -2875,11 +2875,11 @@
     <row r="1" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="str">
         <f>About!B2</f>
-        <v>MN</v>
+        <v>OR</v>
       </c>
       <c r="B1" s="3">
         <f>SUMIFS(D5:D54,A5:A54,A1)</f>
-        <v>286.52968036529683</v>
+        <v>4151.5981735159821</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B5" s="29">
         <f>hydro!B1</f>
-        <v>286.52968036529683</v>
+        <v>4151.5981735159821</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="B6" s="29">
         <f>'onshore wind'!C1</f>
-        <v>182825</v>
+        <v>297335</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="B7" s="28">
         <f>'solar PV'!B1</f>
-        <v>6542000</v>
+        <v>1906000</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="B8" s="28">
         <f>'solar thermal'!B1</f>
-        <v>0</v>
+        <v>1017000</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B9" s="3">
         <f>bio!B1</f>
-        <v>3488.4213959556428</v>
+        <v>2394.6510110893673</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B10" s="3">
         <f>geothermal!B1</f>
-        <v>47000</v>
+        <v>116000</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B14" s="3">
         <f>'offshore wind'!B1</f>
-        <v>29000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="B17" s="3">
         <f>SUMIFS('Population by state'!E6:E56,'Population by state'!B6:B56,About!B1)</f>
-        <v>137.26839150782178</v>
+        <v>103.06684592038673</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8289,11 +8289,11 @@
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="30" t="str">
         <f>About!B2</f>
-        <v>MN</v>
+        <v>OR</v>
       </c>
       <c r="B1" s="3">
         <f>SUMIFS(E3:E52,A3:A52,A1)</f>
-        <v>6542000</v>
+        <v>1906000</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.65">
@@ -10308,11 +10308,11 @@
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="30" t="str">
         <f>About!B2</f>
-        <v>MN</v>
+        <v>OR</v>
       </c>
       <c r="B1" s="3">
         <f>SUMIFS(C3:C53,A3:A53,A1)</f>
-        <v>0</v>
+        <v>1017000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
@@ -11897,11 +11897,11 @@
     <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="str">
         <f>About!B2</f>
-        <v>MN</v>
+        <v>OR</v>
       </c>
       <c r="B1" s="3">
         <f>SUMIFS(C4:C53,A4:A53,A1)</f>
-        <v>29000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
@@ -13405,15 +13405,15 @@
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="str">
         <f>About!B1</f>
-        <v>Minnesota</v>
+        <v>Oregon</v>
       </c>
       <c r="B1" s="3" t="str">
         <f>LOOKUP(A1,M4:N53,N4:N53)</f>
-        <v>MN</v>
+        <v>OR</v>
       </c>
       <c r="C1" s="3">
         <f>SUMIFS(L5:L52,A5:A52,B1)</f>
-        <v>182825</v>
+        <v>297335</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.65">
@@ -16631,11 +16631,11 @@
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="str">
         <f>About!B2</f>
-        <v>MN</v>
+        <v>OR</v>
       </c>
       <c r="B1" s="3">
         <f>SUMIFS(D4:D53,A4:A53,A1)</f>
-        <v>3488.4213959556428</v>
+        <v>2394.6510110893673</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -18430,11 +18430,11 @@
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="str">
         <f>About!B2</f>
-        <v>MN</v>
+        <v>OR</v>
       </c>
       <c r="B1" s="3">
         <f>SUMIFS(C3:C52,A3:A52,A1)</f>
-        <v>47000</v>
+        <v>116000</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
